--- a/backend/fms_core/static/submission_templates/Experiment_Infinium_24_v3_9_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_Infinium_24_v3_9_0.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/static/submission_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122CC61B-B114-3B4E-AE7C-06A9D5FD919B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Experiments" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Samples" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Index" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Experiments" sheetId="1" r:id="rId1"/>
+    <sheet name="Samples" sheetId="2" r:id="rId2"/>
+    <sheet name="Index" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>UFG</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,11 +42,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Infinium chip Barcode</t>
+          <t>Infinium chip Barcode</t>
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -51,11 +56,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">provided with the kit</t>
+          <t>provided with the kit</t>
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -65,11 +70,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">date and time</t>
+          <t>date and time</t>
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -79,11 +84,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">date and time</t>
+          <t>date and time</t>
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="0">
+    <comment ref="T10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -93,11 +98,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">until 4 barcodes per 96 well plate for 24 Sentrix format chip</t>
+          <t>until 4 barcodes per 96 well plate for 24 Sentrix format chip</t>
         </r>
       </text>
     </comment>
-    <comment ref="X10" authorId="0">
+    <comment ref="X10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -107,11 +112,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">date and time</t>
+          <t>date and time</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y10" authorId="0">
+    <comment ref="Y10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -121,11 +126,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">date and time</t>
+          <t>date and time</t>
         </r>
       </text>
     </comment>
-    <comment ref="AN10" authorId="0">
+    <comment ref="AN10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -135,11 +140,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">This field is present only for lab validation. It will not be stored. It should match Experiment Container Barcode.</t>
+          <t>This field is present only for lab validation. It will not be stored. It should match Experiment Container Barcode.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AO10" authorId="0">
+    <comment ref="AO10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">can handle 4 chip max</t>
+          <t>can handle 4 chip max</t>
         </r>
       </text>
     </comment>
@@ -158,1370 +163,1369 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="451">
-  <si>
-    <t xml:space="preserve">Experiment Submission Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infinium Global Screening Array-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fill the Experiments page with the information common to all samples in each experiment, then detail information specific to each sample on the Samples page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a sample appears in more than one experiment, enter multiple entries with the information pertaining to each experiment with the appropriate experiment ID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragmentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybridization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wash beadchip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extend and Stain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image (scan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Container Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Container Kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSA3 Plate Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1N NaOH formulation date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent MA1 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent MA2 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent MSM Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incubation time In Amplification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incubation time Out Amplification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Amplification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent FMS Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Fragmentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent PM1 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent RA1 Barcode Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybridization Chip Barcodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybridization Chamber Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent PB2 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent XC4 Barcode Hybridization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incubation time In Hybridization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incubation time Out Hybridization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Hybridization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent PB1 Barcode Wash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Wash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% form/EDTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent ATM Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent EML Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent LX1 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent LX2 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent PB1 Barcode Stain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent RA1 Barcode Stain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent SML Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent XC3 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent XC4 Barcode Stain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Stain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SentrixBarcode_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scan Chip Rack Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Scan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Container Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Container Coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Sample Volume Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Container Coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12x2 Coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x12 Coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16x24 Coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infinium gs 24 beadchip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P24</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="452">
+  <si>
+    <t>Experiment Submission Template</t>
+  </si>
+  <si>
+    <t>Run Type</t>
+  </si>
+  <si>
+    <t>Infinium Global Screening Array-24</t>
+  </si>
+  <si>
+    <t>Template Version</t>
+  </si>
+  <si>
+    <t>3.9.0</t>
+  </si>
+  <si>
+    <t>Fill the Experiments page with the information common to all samples in each experiment, then detail information specific to each sample on the Samples page.</t>
+  </si>
+  <si>
+    <t>If a sample appears in more than one experiment, enter multiple entries with the information pertaining to each experiment with the appropriate experiment ID.</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Amplification</t>
+  </si>
+  <si>
+    <t>Fragmentation</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>Hybridization</t>
+  </si>
+  <si>
+    <t>Wash beadchip</t>
+  </si>
+  <si>
+    <t>Extend and Stain</t>
+  </si>
+  <si>
+    <t>Image (scan)</t>
+  </si>
+  <si>
+    <t>Experiment Name</t>
+  </si>
+  <si>
+    <t>Experiment Container Barcode</t>
+  </si>
+  <si>
+    <t>Experiment Container Kind</t>
+  </si>
+  <si>
+    <t>Instrument Name</t>
+  </si>
+  <si>
+    <t>Experiment Start Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>MSA3 Plate Barcode</t>
+  </si>
+  <si>
+    <t>0.1N NaOH formulation date</t>
+  </si>
+  <si>
+    <t>Reagent MA1 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent MA2 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent MSM Barcode</t>
+  </si>
+  <si>
+    <t>Incubation time In Amplification</t>
+  </si>
+  <si>
+    <t>Incubation time Out Amplification</t>
+  </si>
+  <si>
+    <t>Comment Amplification</t>
+  </si>
+  <si>
+    <t>Reagent FMS Barcode</t>
+  </si>
+  <si>
+    <t>Comment Fragmentation</t>
+  </si>
+  <si>
+    <t>Reagent PM1 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent RA1 Barcode Precipitation</t>
+  </si>
+  <si>
+    <t>Comment Precipitation</t>
+  </si>
+  <si>
+    <t>Hybridization Chip Barcodes</t>
+  </si>
+  <si>
+    <t>Hybridization Chamber Barcode</t>
+  </si>
+  <si>
+    <t>Reagent PB2 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent XC4 Barcode Hybridization</t>
+  </si>
+  <si>
+    <t>Incubation time In Hybridization</t>
+  </si>
+  <si>
+    <t>Incubation time Out Hybridization</t>
+  </si>
+  <si>
+    <t>Comment Hybridization</t>
+  </si>
+  <si>
+    <t>Reagent PB1 Barcode Wash</t>
+  </si>
+  <si>
+    <t>Comment Wash</t>
+  </si>
+  <si>
+    <t>95% form/EDTA</t>
+  </si>
+  <si>
+    <t>Reagent ATM Barcode</t>
+  </si>
+  <si>
+    <t>Reagent EML Barcode</t>
+  </si>
+  <si>
+    <t>Reagent LX1 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent LX2 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent PB1 Barcode Stain</t>
+  </si>
+  <si>
+    <t>Reagent RA1 Barcode Stain</t>
+  </si>
+  <si>
+    <t>Reagent SML Barcode</t>
+  </si>
+  <si>
+    <t>Reagent XC3 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent XC4 Barcode Stain</t>
+  </si>
+  <si>
+    <t>Comment Stain</t>
+  </si>
+  <si>
+    <t>SentrixBarcode_A</t>
+  </si>
+  <si>
+    <t>Scan Chip Rack Barcode</t>
+  </si>
+  <si>
+    <t>Comment Scan</t>
+  </si>
+  <si>
+    <t>Sample Preparation</t>
+  </si>
+  <si>
+    <t>Source Container Barcode</t>
+  </si>
+  <si>
+    <t>Source Container Coordinates</t>
+  </si>
+  <si>
+    <t>Source Sample Volume Used</t>
+  </si>
+  <si>
+    <t>Experiment Container Coordinates</t>
+  </si>
+  <si>
+    <t>Container Kind</t>
+  </si>
+  <si>
+    <t>12x2 Coords</t>
+  </si>
+  <si>
+    <t>8x12 Coords</t>
+  </si>
+  <si>
+    <t>16x24 Coords</t>
+  </si>
+  <si>
+    <t>infinium gs 24 beadchip</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>I01</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>I02</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>J01</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>J02</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>K01</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>K02</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>L01</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>L02</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>G09</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>H09</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>H24</t>
+  </si>
+  <si>
+    <t>I03</t>
+  </si>
+  <si>
+    <t>I04</t>
+  </si>
+  <si>
+    <t>I05</t>
+  </si>
+  <si>
+    <t>I06</t>
+  </si>
+  <si>
+    <t>I07</t>
+  </si>
+  <si>
+    <t>I08</t>
+  </si>
+  <si>
+    <t>I09</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>I14</t>
+  </si>
+  <si>
+    <t>I15</t>
+  </si>
+  <si>
+    <t>I16</t>
+  </si>
+  <si>
+    <t>I17</t>
+  </si>
+  <si>
+    <t>I18</t>
+  </si>
+  <si>
+    <t>I19</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>I24</t>
+  </si>
+  <si>
+    <t>J03</t>
+  </si>
+  <si>
+    <t>J04</t>
+  </si>
+  <si>
+    <t>J05</t>
+  </si>
+  <si>
+    <t>J06</t>
+  </si>
+  <si>
+    <t>J07</t>
+  </si>
+  <si>
+    <t>J08</t>
+  </si>
+  <si>
+    <t>J09</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>J17</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>J22</t>
+  </si>
+  <si>
+    <t>J23</t>
+  </si>
+  <si>
+    <t>J24</t>
+  </si>
+  <si>
+    <t>K03</t>
+  </si>
+  <si>
+    <t>K04</t>
+  </si>
+  <si>
+    <t>K05</t>
+  </si>
+  <si>
+    <t>K06</t>
+  </si>
+  <si>
+    <t>K07</t>
+  </si>
+  <si>
+    <t>K08</t>
+  </si>
+  <si>
+    <t>K09</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>K14</t>
+  </si>
+  <si>
+    <t>K15</t>
+  </si>
+  <si>
+    <t>K16</t>
+  </si>
+  <si>
+    <t>K17</t>
+  </si>
+  <si>
+    <t>K18</t>
+  </si>
+  <si>
+    <t>K19</t>
+  </si>
+  <si>
+    <t>K20</t>
+  </si>
+  <si>
+    <t>K21</t>
+  </si>
+  <si>
+    <t>K22</t>
+  </si>
+  <si>
+    <t>K23</t>
+  </si>
+  <si>
+    <t>K24</t>
+  </si>
+  <si>
+    <t>L03</t>
+  </si>
+  <si>
+    <t>L04</t>
+  </si>
+  <si>
+    <t>L05</t>
+  </si>
+  <si>
+    <t>L06</t>
+  </si>
+  <si>
+    <t>L07</t>
+  </si>
+  <si>
+    <t>L08</t>
+  </si>
+  <si>
+    <t>L09</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>L24</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>M02</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>M06</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>M08</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>N09</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>N17</t>
+  </si>
+  <si>
+    <t>N18</t>
+  </si>
+  <si>
+    <t>N19</t>
+  </si>
+  <si>
+    <t>N20</t>
+  </si>
+  <si>
+    <t>N21</t>
+  </si>
+  <si>
+    <t>N22</t>
+  </si>
+  <si>
+    <t>N23</t>
+  </si>
+  <si>
+    <t>N24</t>
+  </si>
+  <si>
+    <t>O01</t>
+  </si>
+  <si>
+    <t>O02</t>
+  </si>
+  <si>
+    <t>O03</t>
+  </si>
+  <si>
+    <t>O04</t>
+  </si>
+  <si>
+    <t>O05</t>
+  </si>
+  <si>
+    <t>O06</t>
+  </si>
+  <si>
+    <t>O07</t>
+  </si>
+  <si>
+    <t>O08</t>
+  </si>
+  <si>
+    <t>O09</t>
+  </si>
+  <si>
+    <t>O10</t>
+  </si>
+  <si>
+    <t>O11</t>
+  </si>
+  <si>
+    <t>O12</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>O14</t>
+  </si>
+  <si>
+    <t>O15</t>
+  </si>
+  <si>
+    <t>O16</t>
+  </si>
+  <si>
+    <t>O17</t>
+  </si>
+  <si>
+    <t>O18</t>
+  </si>
+  <si>
+    <t>O19</t>
+  </si>
+  <si>
+    <t>O20</t>
+  </si>
+  <si>
+    <t>O21</t>
+  </si>
+  <si>
+    <t>O22</t>
+  </si>
+  <si>
+    <t>O23</t>
+  </si>
+  <si>
+    <t>O24</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P08</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>Source Sample Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1530,22 +1534,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1636,174 +1625,113 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="dashed"/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1862,69 +1790,375 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="24.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="27.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="28.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="23.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="26.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="26.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="1" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="1" width="25.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.17"/>
+    <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="24.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="21.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21" style="1" customWidth="1"/>
+    <col min="18" max="18" width="28.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="32" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="35" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.1640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="21.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.83203125" style="1" customWidth="1"/>
+    <col min="32" max="33" width="20.1640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="23.5" style="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="18.5" style="1" customWidth="1"/>
+    <col min="37" max="37" width="18.1640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="22.6640625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5" style="1" customWidth="1"/>
+    <col min="40" max="41" width="25.5" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1020" max="1024" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:42" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1932,7 +2166,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:42" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1944,7 +2178,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1956,20 +2190,20 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +2263,7 @@
       <c r="AO9" s="16"/>
       <c r="AP9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
@@ -2157,7 +2391,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
@@ -2170,7 +2404,7 @@
       <c r="AN11" s="18"/>
       <c r="AP11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2214,7 +2448,7 @@
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2258,7 +2492,7 @@
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2302,7 +2536,7 @@
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2346,7 +2580,7 @@
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2390,7 +2624,7 @@
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2434,7 +2668,7 @@
       <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2478,7 +2712,7 @@
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2522,7 +2756,7 @@
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2566,7 +2800,7 @@
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2610,7 +2844,7 @@
       <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2654,7 +2888,7 @@
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2698,7 +2932,7 @@
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2742,7 +2976,7 @@
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2786,7 +3020,7 @@
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2830,7 +3064,7 @@
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2874,7 +3108,7 @@
       <c r="AO27" s="7"/>
       <c r="AP27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2918,7 +3152,7 @@
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2962,7 +3196,7 @@
       <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3006,7 +3240,7 @@
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3050,7 +3284,7 @@
       <c r="AO31" s="7"/>
       <c r="AP31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3094,7 +3328,7 @@
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3138,7 +3372,7 @@
       <c r="AO33" s="7"/>
       <c r="AP33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3182,7 +3416,7 @@
       <c r="AO34" s="7"/>
       <c r="AP34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -3226,7 +3460,7 @@
       <c r="AO35" s="7"/>
       <c r="AP35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3270,7 +3504,7 @@
       <c r="AO36" s="7"/>
       <c r="AP36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3314,7 +3548,7 @@
       <c r="AO37" s="7"/>
       <c r="AP37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -3358,7 +3592,7 @@
       <c r="AO38" s="7"/>
       <c r="AP38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -3402,7 +3636,7 @@
       <c r="AO39" s="7"/>
       <c r="AP39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -3446,7 +3680,7 @@
       <c r="AO40" s="7"/>
       <c r="AP40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3490,7 +3724,7 @@
       <c r="AO41" s="7"/>
       <c r="AP41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -3534,7 +3768,7 @@
       <c r="AO42" s="7"/>
       <c r="AP42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -3578,7 +3812,7 @@
       <c r="AO43" s="7"/>
       <c r="AP43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -3622,7 +3856,7 @@
       <c r="AO44" s="7"/>
       <c r="AP44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3666,7 +3900,7 @@
       <c r="AO45" s="7"/>
       <c r="AP45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3710,7 +3944,7 @@
       <c r="AO46" s="7"/>
       <c r="AP46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -3754,7 +3988,7 @@
       <c r="AO47" s="7"/>
       <c r="AP47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -3798,7 +4032,7 @@
       <c r="AO48" s="7"/>
       <c r="AP48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -3842,7 +4076,7 @@
       <c r="AO49" s="7"/>
       <c r="AP49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -3886,7 +4120,7 @@
       <c r="AO50" s="7"/>
       <c r="AP50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -3930,7 +4164,7 @@
       <c r="AO51" s="7"/>
       <c r="AP51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -3974,7 +4208,7 @@
       <c r="AO52" s="7"/>
       <c r="AP52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4018,7 +4252,7 @@
       <c r="AO53" s="7"/>
       <c r="AP53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4062,7 +4296,7 @@
       <c r="AO54" s="7"/>
       <c r="AP54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4106,7 +4340,7 @@
       <c r="AO55" s="7"/>
       <c r="AP55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4150,7 +4384,7 @@
       <c r="AO56" s="7"/>
       <c r="AP56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -4194,7 +4428,7 @@
       <c r="AO57" s="7"/>
       <c r="AP57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -4238,7 +4472,7 @@
       <c r="AO58" s="7"/>
       <c r="AP58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -4282,7 +4516,7 @@
       <c r="AO59" s="7"/>
       <c r="AP59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -4326,7 +4560,7 @@
       <c r="AO60" s="7"/>
       <c r="AP60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -4370,7 +4604,7 @@
       <c r="AO61" s="7"/>
       <c r="AP61" s="7"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -4414,7 +4648,7 @@
       <c r="AO62" s="7"/>
       <c r="AP62" s="7"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -4458,7 +4692,7 @@
       <c r="AO63" s="7"/>
       <c r="AP63" s="7"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -4502,7 +4736,7 @@
       <c r="AO64" s="7"/>
       <c r="AP64" s="7"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -4546,7 +4780,7 @@
       <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -4590,7 +4824,7 @@
       <c r="AO66" s="7"/>
       <c r="AP66" s="7"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4634,7 +4868,7 @@
       <c r="AO67" s="7"/>
       <c r="AP67" s="7"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4678,7 +4912,7 @@
       <c r="AO68" s="7"/>
       <c r="AP68" s="7"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4722,7 +4956,7 @@
       <c r="AO69" s="7"/>
       <c r="AP69" s="7"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4766,7 +5000,7 @@
       <c r="AO70" s="7"/>
       <c r="AP70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4810,7 +5044,7 @@
       <c r="AO71" s="7"/>
       <c r="AP71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -4854,7 +5088,7 @@
       <c r="AO72" s="7"/>
       <c r="AP72" s="7"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -4898,7 +5132,7 @@
       <c r="AO73" s="7"/>
       <c r="AP73" s="7"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4942,7 +5176,7 @@
       <c r="AO74" s="7"/>
       <c r="AP74" s="7"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4986,7 +5220,7 @@
       <c r="AO75" s="7"/>
       <c r="AP75" s="7"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -5030,7 +5264,7 @@
       <c r="AO76" s="7"/>
       <c r="AP76" s="7"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -5074,7 +5308,7 @@
       <c r="AO77" s="7"/>
       <c r="AP77" s="7"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -5118,7 +5352,7 @@
       <c r="AO78" s="7"/>
       <c r="AP78" s="7"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -5162,7 +5396,7 @@
       <c r="AO79" s="7"/>
       <c r="AP79" s="7"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -5206,7 +5440,7 @@
       <c r="AO80" s="7"/>
       <c r="AP80" s="7"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -5250,7 +5484,7 @@
       <c r="AO81" s="7"/>
       <c r="AP81" s="7"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -5294,7 +5528,7 @@
       <c r="AO82" s="7"/>
       <c r="AP82" s="7"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -5338,7 +5572,7 @@
       <c r="AO83" s="7"/>
       <c r="AP83" s="7"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5382,7 +5616,7 @@
       <c r="AO84" s="7"/>
       <c r="AP84" s="7"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -5426,7 +5660,7 @@
       <c r="AO85" s="7"/>
       <c r="AP85" s="7"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -5470,7 +5704,7 @@
       <c r="AO86" s="7"/>
       <c r="AP86" s="7"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -5514,7 +5748,7 @@
       <c r="AO87" s="7"/>
       <c r="AP87" s="7"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -5558,7 +5792,7 @@
       <c r="AO88" s="7"/>
       <c r="AP88" s="7"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -5602,7 +5836,7 @@
       <c r="AO89" s="7"/>
       <c r="AP89" s="7"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -5646,7 +5880,7 @@
       <c r="AO90" s="7"/>
       <c r="AP90" s="7"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5690,7 +5924,7 @@
       <c r="AO91" s="7"/>
       <c r="AP91" s="7"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -5734,7 +5968,7 @@
       <c r="AO92" s="7"/>
       <c r="AP92" s="7"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -5778,7 +6012,7 @@
       <c r="AO93" s="7"/>
       <c r="AP93" s="7"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -5822,7 +6056,7 @@
       <c r="AO94" s="7"/>
       <c r="AP94" s="7"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -5866,160 +6100,176 @@
       <c r="AO95" s="7"/>
       <c r="AP95" s="7"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C29" type="list">
-      <formula1>Index!$A$2:$A$2</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Index!$A$2:$A$2</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C11:C29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="24.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="982" style="0" width="9.17"/>
+    <col min="1" max="3" width="24.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="983" max="1024" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="6"/>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A100" type="list">
-      <formula1>Experiments!$A$11:$A$110</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E101" type="list">
-      <formula1>Index!$B$2:$B$25</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C5:C101" type="list">
-      <formula1>Index!$C$2:$C$97</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation operator="equal" allowBlank="1" showErrorMessage="1" sqref="B5:B729" xr:uid="{3D5BD9E6-E01B-3343-B5D5-B3EF82345063}"/>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Experiments!$A$11:$A$110</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>A5:A100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Index!$B$2:$B$25</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>F5:F101</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>Index!$C$2:$C$97</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D5:D101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.83"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>62</v>
       </c>
@@ -6033,7 +6283,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>66</v>
       </c>
@@ -6047,7 +6297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
         <v>68</v>
@@ -6059,7 +6309,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="24" t="s">
         <v>69</v>
@@ -6071,7 +6321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="24" t="s">
         <v>71</v>
@@ -6083,7 +6333,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
       <c r="B6" s="24" t="s">
         <v>73</v>
@@ -6095,7 +6345,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="24" t="s">
         <v>75</v>
@@ -6107,7 +6357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
         <v>77</v>
@@ -6119,7 +6369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="24" t="s">
         <v>79</v>
@@ -6131,7 +6381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="24" t="s">
         <v>81</v>
@@ -6143,7 +6393,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24" t="s">
         <v>83</v>
@@ -6155,7 +6405,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="24" t="s">
         <v>85</v>
@@ -6167,7 +6417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="24" t="s">
         <v>87</v>
@@ -6179,7 +6429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="24" t="s">
         <v>89</v>
@@ -6191,7 +6441,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="24" t="s">
         <v>91</v>
@@ -6203,7 +6453,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
       <c r="B16" s="24" t="s">
         <v>93</v>
@@ -6215,7 +6465,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="24" t="s">
         <v>96</v>
@@ -6227,7 +6477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="24" t="s">
         <v>99</v>
@@ -6239,7 +6489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="24" t="s">
         <v>102</v>
@@ -6251,7 +6501,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
       <c r="B20" s="24" t="s">
         <v>105</v>
@@ -6263,7 +6513,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="24" t="s">
         <v>108</v>
@@ -6275,7 +6525,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="24" t="s">
         <v>111</v>
@@ -6287,7 +6537,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="24" t="s">
         <v>114</v>
@@ -6299,7 +6549,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
       <c r="B24" s="24" t="s">
         <v>117</v>
@@ -6311,7 +6561,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="24" t="s">
         <v>120</v>
@@ -6323,7 +6573,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24" t="s">
@@ -6333,7 +6583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -6343,7 +6593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24" t="s">
@@ -6353,7 +6603,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24" t="s">
@@ -6363,7 +6613,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24" t="s">
@@ -6373,7 +6623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24" t="s">
@@ -6383,7 +6633,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24" t="s">
@@ -6393,7 +6643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24" t="s">
@@ -6403,7 +6653,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24" t="s">
@@ -6413,7 +6663,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24" t="s">
@@ -6423,7 +6673,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
@@ -6433,7 +6683,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24" t="s">
@@ -6443,7 +6693,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24" t="s">
@@ -6453,7 +6703,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24" t="s">
@@ -6463,7 +6713,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24" t="s">
@@ -6473,7 +6723,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24" t="s">
@@ -6483,7 +6733,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24" t="s">
@@ -6493,7 +6743,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24" t="s">
@@ -6503,7 +6753,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24" t="s">
@@ -6513,7 +6763,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24" t="s">
@@ -6523,7 +6773,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24" t="s">
@@ -6533,7 +6783,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24" t="s">
@@ -6543,7 +6793,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24" t="s">
@@ -6553,7 +6803,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24" t="s">
@@ -6563,7 +6813,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24" t="s">
@@ -6573,7 +6823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24" t="s">
@@ -6583,7 +6833,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24" t="s">
@@ -6593,7 +6843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24" t="s">
@@ -6603,7 +6853,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24" t="s">
@@ -6613,7 +6863,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24" t="s">
@@ -6623,7 +6873,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24" t="s">
@@ -6633,7 +6883,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24" t="s">
@@ -6643,7 +6893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
       <c r="C58" s="24" t="s">
@@ -6653,7 +6903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24" t="s">
@@ -6663,7 +6913,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24" t="s">
@@ -6673,7 +6923,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24" t="s">
@@ -6683,7 +6933,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24" t="s">
@@ -6693,7 +6943,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24" t="s">
@@ -6703,7 +6953,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24" t="s">
@@ -6713,7 +6963,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24" t="s">
@@ -6723,7 +6973,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24" t="s">
@@ -6733,7 +6983,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="24" t="s">
@@ -6743,7 +6993,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24" t="s">
@@ -6753,7 +7003,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24" t="s">
@@ -6763,7 +7013,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
       <c r="C70" s="24" t="s">
@@ -6773,7 +7023,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="24" t="s">
@@ -6783,7 +7033,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24" t="s">
@@ -6793,7 +7043,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
       <c r="C73" s="24" t="s">
@@ -6803,7 +7053,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="24"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24" t="s">
@@ -6813,7 +7063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24" t="s">
@@ -6823,7 +7073,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24" t="s">
@@ -6833,7 +7083,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24" t="s">
@@ -6843,7 +7093,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24" t="s">
@@ -6853,7 +7103,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="24"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24" t="s">
@@ -6863,7 +7113,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="24"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24" t="s">
@@ -6873,7 +7123,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="24"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24" t="s">
@@ -6883,7 +7133,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="24"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24" t="s">
@@ -6893,7 +7143,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
       <c r="C83" s="24" t="s">
@@ -6903,7 +7153,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="24"/>
       <c r="B84" s="24"/>
       <c r="C84" s="24" t="s">
@@ -6913,7 +7163,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="24"/>
       <c r="B85" s="24"/>
       <c r="C85" s="24" t="s">
@@ -6923,7 +7173,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="24"/>
       <c r="B86" s="24"/>
       <c r="C86" s="24" t="s">
@@ -6933,7 +7183,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="24"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24" t="s">
@@ -6943,7 +7193,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="24"/>
       <c r="B88" s="24"/>
       <c r="C88" s="24" t="s">
@@ -6953,7 +7203,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24" t="s">
@@ -6963,7 +7213,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24" t="s">
@@ -6973,7 +7223,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
       <c r="C91" s="24" t="s">
@@ -6983,7 +7233,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="24"/>
       <c r="B92" s="24"/>
       <c r="C92" s="24" t="s">
@@ -6993,7 +7243,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="24"/>
       <c r="B93" s="24"/>
       <c r="C93" s="24" t="s">
@@ -7003,7 +7253,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
       <c r="C94" s="24" t="s">
@@ -7013,7 +7263,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
       <c r="C95" s="24" t="s">
@@ -7023,7 +7273,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="24"/>
       <c r="B96" s="24"/>
       <c r="C96" s="24" t="s">
@@ -7033,7 +7283,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="24"/>
       <c r="B97" s="24"/>
       <c r="C97" s="24" t="s">
@@ -7043,7 +7293,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="24"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -7051,7 +7301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="24"/>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -7059,7 +7309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="24"/>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
@@ -7067,7 +7317,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="24"/>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
@@ -7075,7 +7325,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="24"/>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
@@ -7083,7 +7333,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="24"/>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
@@ -7091,7 +7341,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="24"/>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
@@ -7099,7 +7349,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="24"/>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
@@ -7107,7 +7357,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="24"/>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
@@ -7115,7 +7365,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -7123,7 +7373,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="24"/>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
@@ -7131,7 +7381,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="24"/>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
@@ -7139,7 +7389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="24"/>
       <c r="B110" s="24"/>
       <c r="C110" s="24"/>
@@ -7147,7 +7397,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="24"/>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
@@ -7155,7 +7405,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="24"/>
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
@@ -7163,7 +7413,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="24"/>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
@@ -7171,7 +7421,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="24"/>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
@@ -7179,7 +7429,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
@@ -7187,7 +7437,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="24"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
@@ -7195,7 +7445,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="24"/>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
@@ -7203,7 +7453,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="24"/>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
@@ -7211,7 +7461,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
@@ -7219,7 +7469,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="24"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -7227,7 +7477,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="24"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -7235,7 +7485,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="24"/>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
@@ -7243,7 +7493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -7251,7 +7501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
@@ -7259,7 +7509,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
@@ -7267,7 +7517,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -7275,7 +7525,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
@@ -7283,7 +7533,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
@@ -7291,7 +7541,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
@@ -7299,7 +7549,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
@@ -7307,7 +7557,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
@@ -7315,7 +7565,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
@@ -7323,7 +7573,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
@@ -7331,7 +7581,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -7339,7 +7589,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
@@ -7347,7 +7597,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
@@ -7355,7 +7605,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -7363,7 +7613,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
@@ -7371,7 +7621,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
@@ -7379,7 +7629,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
@@ -7387,7 +7637,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
@@ -7395,7 +7645,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
@@ -7403,7 +7653,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
@@ -7411,7 +7661,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="24"/>
       <c r="B144" s="24"/>
       <c r="C144" s="24"/>
@@ -7419,7 +7669,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="24"/>
       <c r="B145" s="24"/>
       <c r="C145" s="24"/>
@@ -7427,7 +7677,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="24"/>
       <c r="B146" s="24"/>
       <c r="C146" s="24"/>
@@ -7435,7 +7685,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="24"/>
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
@@ -7443,7 +7693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="24"/>
       <c r="B148" s="24"/>
       <c r="C148" s="24"/>
@@ -7451,7 +7701,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="24"/>
       <c r="B149" s="24"/>
       <c r="C149" s="24"/>
@@ -7459,7 +7709,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="24"/>
       <c r="B150" s="24"/>
       <c r="C150" s="24"/>
@@ -7467,7 +7717,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="24"/>
       <c r="B151" s="24"/>
       <c r="C151" s="24"/>
@@ -7475,7 +7725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="24"/>
       <c r="B152" s="24"/>
       <c r="C152" s="24"/>
@@ -7483,7 +7733,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
       <c r="C153" s="24"/>
@@ -7491,7 +7741,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="24"/>
       <c r="B154" s="24"/>
       <c r="C154" s="24"/>
@@ -7499,7 +7749,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
@@ -7507,7 +7757,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="24"/>
       <c r="B156" s="24"/>
       <c r="C156" s="24"/>
@@ -7515,7 +7765,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="24"/>
       <c r="B157" s="24"/>
       <c r="C157" s="24"/>
@@ -7523,7 +7773,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="24"/>
       <c r="B158" s="24"/>
       <c r="C158" s="24"/>
@@ -7531,7 +7781,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="24"/>
       <c r="B159" s="24"/>
       <c r="C159" s="24"/>
@@ -7539,7 +7789,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="24"/>
       <c r="B160" s="24"/>
       <c r="C160" s="24"/>
@@ -7547,7 +7797,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="24"/>
       <c r="B161" s="24"/>
       <c r="C161" s="24"/>
@@ -7555,7 +7805,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="24"/>
       <c r="B162" s="24"/>
       <c r="C162" s="24"/>
@@ -7563,7 +7813,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="24"/>
       <c r="B163" s="24"/>
       <c r="C163" s="24"/>
@@ -7571,7 +7821,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="24"/>
       <c r="B164" s="24"/>
       <c r="C164" s="24"/>
@@ -7579,7 +7829,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="24"/>
       <c r="B165" s="24"/>
       <c r="C165" s="24"/>
@@ -7587,7 +7837,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="24"/>
       <c r="B166" s="24"/>
       <c r="C166" s="24"/>
@@ -7595,7 +7845,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="24"/>
       <c r="B167" s="24"/>
       <c r="C167" s="24"/>
@@ -7603,7 +7853,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="24"/>
       <c r="B168" s="24"/>
       <c r="C168" s="24"/>
@@ -7611,7 +7861,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="24"/>
       <c r="B169" s="24"/>
       <c r="C169" s="24"/>
@@ -7619,7 +7869,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="24"/>
       <c r="B170" s="24"/>
       <c r="C170" s="24"/>
@@ -7627,7 +7877,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="24"/>
       <c r="B171" s="24"/>
       <c r="C171" s="24"/>
@@ -7635,7 +7885,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="24"/>
       <c r="B172" s="24"/>
       <c r="C172" s="24"/>
@@ -7643,7 +7893,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="24"/>
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
@@ -7651,7 +7901,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="24"/>
       <c r="B174" s="24"/>
       <c r="C174" s="24"/>
@@ -7659,7 +7909,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="24"/>
       <c r="B175" s="24"/>
       <c r="C175" s="24"/>
@@ -7667,7 +7917,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="24"/>
       <c r="B176" s="24"/>
       <c r="C176" s="24"/>
@@ -7675,7 +7925,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="24"/>
       <c r="B177" s="24"/>
       <c r="C177" s="24"/>
@@ -7683,7 +7933,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="24"/>
       <c r="B178" s="24"/>
       <c r="C178" s="24"/>
@@ -7691,7 +7941,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="24"/>
       <c r="B179" s="24"/>
       <c r="C179" s="24"/>
@@ -7699,7 +7949,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="24"/>
       <c r="B180" s="24"/>
       <c r="C180" s="24"/>
@@ -7707,7 +7957,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="24"/>
       <c r="B181" s="24"/>
       <c r="C181" s="24"/>
@@ -7715,7 +7965,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="24"/>
       <c r="B182" s="24"/>
       <c r="C182" s="24"/>
@@ -7723,7 +7973,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="24"/>
       <c r="B183" s="24"/>
       <c r="C183" s="24"/>
@@ -7731,7 +7981,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="24"/>
       <c r="B184" s="24"/>
       <c r="C184" s="24"/>
@@ -7739,7 +7989,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="24"/>
       <c r="B185" s="24"/>
       <c r="C185" s="24"/>
@@ -7747,7 +7997,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="24"/>
       <c r="B186" s="24"/>
       <c r="C186" s="24"/>
@@ -7755,7 +8005,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="24"/>
       <c r="B187" s="24"/>
       <c r="C187" s="24"/>
@@ -7763,7 +8013,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="24"/>
       <c r="B188" s="24"/>
       <c r="C188" s="24"/>
@@ -7771,7 +8021,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="24"/>
       <c r="B189" s="24"/>
       <c r="C189" s="24"/>
@@ -7779,7 +8029,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="24"/>
       <c r="B190" s="24"/>
       <c r="C190" s="24"/>
@@ -7787,7 +8037,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="24"/>
       <c r="B191" s="24"/>
       <c r="C191" s="24"/>
@@ -7795,7 +8045,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="24"/>
       <c r="B192" s="24"/>
       <c r="C192" s="24"/>
@@ -7803,7 +8053,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="24"/>
       <c r="B193" s="24"/>
       <c r="C193" s="24"/>
@@ -7811,7 +8061,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="24"/>
       <c r="B194" s="24"/>
       <c r="C194" s="24"/>
@@ -7819,7 +8069,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="24"/>
       <c r="B195" s="24"/>
       <c r="C195" s="24"/>
@@ -7827,7 +8077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="24"/>
       <c r="B196" s="24"/>
       <c r="C196" s="24"/>
@@ -7835,7 +8085,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="24"/>
       <c r="B197" s="24"/>
       <c r="C197" s="24"/>
@@ -7843,7 +8093,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="24"/>
       <c r="B198" s="24"/>
       <c r="C198" s="24"/>
@@ -7851,7 +8101,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="24"/>
       <c r="B199" s="24"/>
       <c r="C199" s="24"/>
@@ -7859,7 +8109,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="24"/>
       <c r="B200" s="24"/>
       <c r="C200" s="24"/>
@@ -7867,7 +8117,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="24"/>
       <c r="B201" s="24"/>
       <c r="C201" s="24"/>
@@ -7875,7 +8125,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="24"/>
       <c r="B202" s="24"/>
       <c r="C202" s="24"/>
@@ -7883,7 +8133,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="24"/>
       <c r="B203" s="24"/>
       <c r="C203" s="24"/>
@@ -7891,7 +8141,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="24"/>
       <c r="B204" s="24"/>
       <c r="C204" s="24"/>
@@ -7899,7 +8149,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="24"/>
       <c r="B205" s="24"/>
       <c r="C205" s="24"/>
@@ -7907,7 +8157,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="24"/>
       <c r="B206" s="24"/>
       <c r="C206" s="24"/>
@@ -7915,7 +8165,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="24"/>
       <c r="B207" s="24"/>
       <c r="C207" s="24"/>
@@ -7923,7 +8173,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="24"/>
       <c r="B208" s="24"/>
       <c r="C208" s="24"/>
@@ -7931,7 +8181,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="24"/>
       <c r="B209" s="24"/>
       <c r="C209" s="24"/>
@@ -7939,7 +8189,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="24"/>
       <c r="B210" s="24"/>
       <c r="C210" s="24"/>
@@ -7947,7 +8197,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="24"/>
       <c r="B211" s="24"/>
       <c r="C211" s="24"/>
@@ -7955,7 +8205,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="24"/>
       <c r="B212" s="24"/>
       <c r="C212" s="24"/>
@@ -7963,7 +8213,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="24"/>
       <c r="B213" s="24"/>
       <c r="C213" s="24"/>
@@ -7971,7 +8221,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="24"/>
       <c r="B214" s="24"/>
       <c r="C214" s="24"/>
@@ -7979,7 +8229,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="24"/>
       <c r="B215" s="24"/>
       <c r="C215" s="24"/>
@@ -7987,7 +8237,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="24"/>
       <c r="B216" s="24"/>
       <c r="C216" s="24"/>
@@ -7995,7 +8245,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="24"/>
       <c r="B217" s="24"/>
       <c r="C217" s="24"/>
@@ -8003,7 +8253,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="24"/>
       <c r="B218" s="24"/>
       <c r="C218" s="24"/>
@@ -8011,7 +8261,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="24"/>
       <c r="B219" s="24"/>
       <c r="C219" s="24"/>
@@ -8019,7 +8269,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="24"/>
       <c r="B220" s="24"/>
       <c r="C220" s="24"/>
@@ -8027,7 +8277,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="24"/>
       <c r="B221" s="24"/>
       <c r="C221" s="24"/>
@@ -8035,7 +8285,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="24"/>
       <c r="B222" s="24"/>
       <c r="C222" s="24"/>
@@ -8043,7 +8293,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="24"/>
       <c r="B223" s="24"/>
       <c r="C223" s="24"/>
@@ -8051,7 +8301,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="24"/>
       <c r="B224" s="24"/>
       <c r="C224" s="24"/>
@@ -8059,7 +8309,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="24"/>
       <c r="B225" s="24"/>
       <c r="C225" s="24"/>
@@ -8067,7 +8317,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="24"/>
       <c r="B226" s="24"/>
       <c r="C226" s="24"/>
@@ -8075,7 +8325,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="24"/>
       <c r="B227" s="24"/>
       <c r="C227" s="24"/>
@@ -8083,7 +8333,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="24"/>
       <c r="B228" s="24"/>
       <c r="C228" s="24"/>
@@ -8091,7 +8341,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="24"/>
       <c r="B229" s="24"/>
       <c r="C229" s="24"/>
@@ -8099,7 +8349,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="24"/>
       <c r="B230" s="24"/>
       <c r="C230" s="24"/>
@@ -8107,7 +8357,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="24"/>
       <c r="B231" s="24"/>
       <c r="C231" s="24"/>
@@ -8115,7 +8365,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="24"/>
       <c r="B232" s="24"/>
       <c r="C232" s="24"/>
@@ -8123,7 +8373,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="24"/>
       <c r="B233" s="24"/>
       <c r="C233" s="24"/>
@@ -8131,7 +8381,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="24"/>
       <c r="B234" s="24"/>
       <c r="C234" s="24"/>
@@ -8139,7 +8389,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="24"/>
       <c r="B235" s="24"/>
       <c r="C235" s="24"/>
@@ -8147,7 +8397,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="24"/>
       <c r="B236" s="24"/>
       <c r="C236" s="24"/>
@@ -8155,7 +8405,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="24"/>
       <c r="B237" s="24"/>
       <c r="C237" s="24"/>
@@ -8163,7 +8413,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="24"/>
       <c r="B238" s="24"/>
       <c r="C238" s="24"/>
@@ -8171,7 +8421,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="24"/>
       <c r="B239" s="24"/>
       <c r="C239" s="24"/>
@@ -8179,7 +8429,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="24"/>
       <c r="B240" s="24"/>
       <c r="C240" s="24"/>
@@ -8187,7 +8437,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="24"/>
       <c r="B241" s="24"/>
       <c r="C241" s="24"/>
@@ -8195,7 +8445,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="24"/>
       <c r="B242" s="24"/>
       <c r="C242" s="24"/>
@@ -8203,7 +8453,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="24"/>
       <c r="B243" s="24"/>
       <c r="C243" s="24"/>
@@ -8211,7 +8461,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="24"/>
       <c r="B244" s="24"/>
       <c r="C244" s="24"/>
@@ -8219,7 +8469,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="24"/>
       <c r="B245" s="24"/>
       <c r="C245" s="24"/>
@@ -8227,7 +8477,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="24"/>
       <c r="B246" s="24"/>
       <c r="C246" s="24"/>
@@ -8235,7 +8485,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="24"/>
       <c r="B247" s="24"/>
       <c r="C247" s="24"/>
@@ -8243,7 +8493,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="24"/>
       <c r="B248" s="24"/>
       <c r="C248" s="24"/>
@@ -8251,7 +8501,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="24"/>
       <c r="B249" s="24"/>
       <c r="C249" s="24"/>
@@ -8259,7 +8509,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="24"/>
       <c r="B250" s="24"/>
       <c r="C250" s="24"/>
@@ -8267,7 +8517,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="24"/>
       <c r="B251" s="24"/>
       <c r="C251" s="24"/>
@@ -8275,7 +8525,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="24"/>
       <c r="B252" s="24"/>
       <c r="C252" s="24"/>
@@ -8283,7 +8533,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="24"/>
       <c r="B253" s="24"/>
       <c r="C253" s="24"/>
@@ -8291,7 +8541,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="24"/>
       <c r="B254" s="24"/>
       <c r="C254" s="24"/>
@@ -8299,7 +8549,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="24"/>
       <c r="B255" s="24"/>
       <c r="C255" s="24"/>
@@ -8307,7 +8557,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="24"/>
       <c r="B256" s="24"/>
       <c r="C256" s="24"/>
@@ -8315,7 +8565,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="24"/>
       <c r="B257" s="24"/>
       <c r="C257" s="24"/>
@@ -8323,7 +8573,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="24"/>
       <c r="B258" s="24"/>
       <c r="C258" s="24"/>
@@ -8331,7 +8581,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="24"/>
       <c r="B259" s="24"/>
       <c r="C259" s="24"/>
@@ -8339,7 +8589,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="24"/>
       <c r="B260" s="24"/>
       <c r="C260" s="24"/>
@@ -8347,7 +8597,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="24"/>
       <c r="B261" s="24"/>
       <c r="C261" s="24"/>
@@ -8355,7 +8605,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="24"/>
       <c r="B262" s="24"/>
       <c r="C262" s="24"/>
@@ -8363,7 +8613,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="24"/>
       <c r="B263" s="24"/>
       <c r="C263" s="24"/>
@@ -8371,7 +8621,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="24"/>
       <c r="B264" s="24"/>
       <c r="C264" s="24"/>
@@ -8379,7 +8629,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="24"/>
       <c r="B265" s="24"/>
       <c r="C265" s="24"/>
@@ -8387,7 +8637,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="24"/>
       <c r="B266" s="24"/>
       <c r="C266" s="24"/>
@@ -8395,7 +8645,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="24"/>
       <c r="B267" s="24"/>
       <c r="C267" s="24"/>
@@ -8403,7 +8653,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="24"/>
       <c r="B268" s="24"/>
       <c r="C268" s="24"/>
@@ -8411,7 +8661,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="24"/>
       <c r="B269" s="24"/>
       <c r="C269" s="24"/>
@@ -8419,7 +8669,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="24"/>
       <c r="B270" s="24"/>
       <c r="C270" s="24"/>
@@ -8427,7 +8677,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="24"/>
       <c r="B271" s="24"/>
       <c r="C271" s="24"/>
@@ -8435,7 +8685,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="24"/>
       <c r="B272" s="24"/>
       <c r="C272" s="24"/>
@@ -8443,7 +8693,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="24"/>
       <c r="B273" s="24"/>
       <c r="C273" s="24"/>
@@ -8451,7 +8701,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="24"/>
       <c r="B274" s="24"/>
       <c r="C274" s="24"/>
@@ -8459,7 +8709,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="24"/>
       <c r="B275" s="24"/>
       <c r="C275" s="24"/>
@@ -8467,7 +8717,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="24"/>
       <c r="B276" s="24"/>
       <c r="C276" s="24"/>
@@ -8475,7 +8725,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="24"/>
       <c r="B277" s="24"/>
       <c r="C277" s="24"/>
@@ -8483,7 +8733,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="24"/>
       <c r="B278" s="24"/>
       <c r="C278" s="24"/>
@@ -8491,7 +8741,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="24"/>
       <c r="B279" s="24"/>
       <c r="C279" s="24"/>
@@ -8499,7 +8749,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="24"/>
       <c r="B280" s="24"/>
       <c r="C280" s="24"/>
@@ -8507,7 +8757,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="24"/>
       <c r="B281" s="24"/>
       <c r="C281" s="24"/>
@@ -8515,7 +8765,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="24"/>
       <c r="B282" s="24"/>
       <c r="C282" s="24"/>
@@ -8523,7 +8773,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="24"/>
       <c r="B283" s="24"/>
       <c r="C283" s="24"/>
@@ -8531,7 +8781,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="24"/>
       <c r="B284" s="24"/>
       <c r="C284" s="24"/>
@@ -8539,7 +8789,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="24"/>
       <c r="B285" s="24"/>
       <c r="C285" s="24"/>
@@ -8547,7 +8797,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="24"/>
       <c r="B286" s="24"/>
       <c r="C286" s="24"/>
@@ -8555,7 +8805,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="24"/>
       <c r="B287" s="24"/>
       <c r="C287" s="24"/>
@@ -8563,7 +8813,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="24"/>
       <c r="B288" s="24"/>
       <c r="C288" s="24"/>
@@ -8571,7 +8821,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="24"/>
       <c r="B289" s="24"/>
       <c r="C289" s="24"/>
@@ -8579,7 +8829,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="24"/>
       <c r="B290" s="24"/>
       <c r="C290" s="24"/>
@@ -8587,7 +8837,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="24"/>
       <c r="B291" s="24"/>
       <c r="C291" s="24"/>
@@ -8595,7 +8845,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="24"/>
       <c r="B292" s="24"/>
       <c r="C292" s="24"/>
@@ -8603,7 +8853,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="24"/>
       <c r="B293" s="24"/>
       <c r="C293" s="24"/>
@@ -8611,7 +8861,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="24"/>
       <c r="B294" s="24"/>
       <c r="C294" s="24"/>
@@ -8619,7 +8869,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="24"/>
       <c r="B295" s="24"/>
       <c r="C295" s="24"/>
@@ -8627,7 +8877,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="24"/>
       <c r="B296" s="24"/>
       <c r="C296" s="24"/>
@@ -8635,7 +8885,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="24"/>
       <c r="B297" s="24"/>
       <c r="C297" s="24"/>
@@ -8643,7 +8893,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="24"/>
       <c r="B298" s="24"/>
       <c r="C298" s="24"/>
@@ -8651,7 +8901,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="24"/>
       <c r="B299" s="24"/>
       <c r="C299" s="24"/>
@@ -8659,7 +8909,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="24"/>
       <c r="B300" s="24"/>
       <c r="C300" s="24"/>
@@ -8667,7 +8917,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="24"/>
       <c r="B301" s="24"/>
       <c r="C301" s="24"/>
@@ -8675,7 +8925,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="24"/>
       <c r="B302" s="24"/>
       <c r="C302" s="24"/>
@@ -8683,7 +8933,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="24"/>
       <c r="B303" s="24"/>
       <c r="C303" s="24"/>
@@ -8691,7 +8941,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="24"/>
       <c r="B304" s="24"/>
       <c r="C304" s="24"/>
@@ -8699,7 +8949,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="24"/>
       <c r="B305" s="24"/>
       <c r="C305" s="24"/>
@@ -8707,7 +8957,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="24"/>
       <c r="B306" s="24"/>
       <c r="C306" s="24"/>
@@ -8715,7 +8965,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="24"/>
       <c r="B307" s="24"/>
       <c r="C307" s="24"/>
@@ -8723,7 +8973,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="24"/>
       <c r="B308" s="24"/>
       <c r="C308" s="24"/>
@@ -8731,7 +8981,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="24"/>
       <c r="B309" s="24"/>
       <c r="C309" s="24"/>
@@ -8739,7 +8989,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="24"/>
       <c r="B310" s="24"/>
       <c r="C310" s="24"/>
@@ -8747,7 +8997,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="24"/>
       <c r="B311" s="24"/>
       <c r="C311" s="24"/>
@@ -8755,7 +9005,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="24"/>
       <c r="B312" s="24"/>
       <c r="C312" s="24"/>
@@ -8763,7 +9013,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="24"/>
       <c r="B313" s="24"/>
       <c r="C313" s="24"/>
@@ -8771,7 +9021,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="24"/>
       <c r="B314" s="24"/>
       <c r="C314" s="24"/>
@@ -8779,7 +9029,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="24"/>
       <c r="B315" s="24"/>
       <c r="C315" s="24"/>
@@ -8787,7 +9037,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="24"/>
       <c r="B316" s="24"/>
       <c r="C316" s="24"/>
@@ -8795,7 +9045,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="24"/>
       <c r="B317" s="24"/>
       <c r="C317" s="24"/>
@@ -8803,7 +9053,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="24"/>
       <c r="B318" s="24"/>
       <c r="C318" s="24"/>
@@ -8811,7 +9061,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="24"/>
       <c r="B319" s="24"/>
       <c r="C319" s="24"/>
@@ -8819,7 +9069,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="24"/>
       <c r="B320" s="24"/>
       <c r="C320" s="24"/>
@@ -8827,7 +9077,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="24"/>
       <c r="B321" s="24"/>
       <c r="C321" s="24"/>
@@ -8835,7 +9085,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="24"/>
       <c r="B322" s="24"/>
       <c r="C322" s="24"/>
@@ -8843,7 +9093,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="24"/>
       <c r="B323" s="24"/>
       <c r="C323" s="24"/>
@@ -8851,7 +9101,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="24"/>
       <c r="B324" s="24"/>
       <c r="C324" s="24"/>
@@ -8859,7 +9109,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="24"/>
       <c r="B325" s="24"/>
       <c r="C325" s="24"/>
@@ -8867,7 +9117,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="24"/>
       <c r="B326" s="24"/>
       <c r="C326" s="24"/>
@@ -8875,7 +9125,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="24"/>
       <c r="B327" s="24"/>
       <c r="C327" s="24"/>
@@ -8883,7 +9133,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="24"/>
       <c r="B328" s="24"/>
       <c r="C328" s="24"/>
@@ -8891,7 +9141,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="24"/>
       <c r="B329" s="24"/>
       <c r="C329" s="24"/>
@@ -8899,7 +9149,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="24"/>
       <c r="B330" s="24"/>
       <c r="C330" s="24"/>
@@ -8907,7 +9157,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="24"/>
       <c r="B331" s="24"/>
       <c r="C331" s="24"/>
@@ -8915,7 +9165,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="24"/>
       <c r="B332" s="24"/>
       <c r="C332" s="24"/>
@@ -8923,7 +9173,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="24"/>
       <c r="B333" s="24"/>
       <c r="C333" s="24"/>
@@ -8931,7 +9181,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="24"/>
       <c r="B334" s="24"/>
       <c r="C334" s="24"/>
@@ -8939,7 +9189,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="24"/>
       <c r="B335" s="24"/>
       <c r="C335" s="24"/>
@@ -8947,7 +9197,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="24"/>
       <c r="B336" s="24"/>
       <c r="C336" s="24"/>
@@ -8955,7 +9205,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="24"/>
       <c r="B337" s="24"/>
       <c r="C337" s="24"/>
@@ -8963,7 +9213,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="24"/>
       <c r="B338" s="24"/>
       <c r="C338" s="24"/>
@@ -8971,7 +9221,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="24"/>
       <c r="B339" s="24"/>
       <c r="C339" s="24"/>
@@ -8979,7 +9229,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="24"/>
       <c r="B340" s="24"/>
       <c r="C340" s="24"/>
@@ -8987,7 +9237,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="24"/>
       <c r="B341" s="24"/>
       <c r="C341" s="24"/>
@@ -8995,7 +9245,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="24"/>
       <c r="B342" s="24"/>
       <c r="C342" s="24"/>
@@ -9003,7 +9253,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="24"/>
       <c r="B343" s="24"/>
       <c r="C343" s="24"/>
@@ -9011,7 +9261,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="24"/>
       <c r="B344" s="24"/>
       <c r="C344" s="24"/>
@@ -9019,7 +9269,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="24"/>
       <c r="B345" s="24"/>
       <c r="C345" s="24"/>
@@ -9027,7 +9277,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="24"/>
       <c r="B346" s="24"/>
       <c r="C346" s="24"/>
@@ -9035,7 +9285,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="24"/>
       <c r="B347" s="24"/>
       <c r="C347" s="24"/>
@@ -9043,7 +9293,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="24"/>
       <c r="B348" s="24"/>
       <c r="C348" s="24"/>
@@ -9051,7 +9301,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="24"/>
       <c r="B349" s="24"/>
       <c r="C349" s="24"/>
@@ -9059,7 +9309,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="24"/>
       <c r="B350" s="24"/>
       <c r="C350" s="24"/>
@@ -9067,7 +9317,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="24"/>
       <c r="B351" s="24"/>
       <c r="C351" s="24"/>
@@ -9075,7 +9325,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="24"/>
       <c r="B352" s="24"/>
       <c r="C352" s="24"/>
@@ -9083,7 +9333,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="24"/>
       <c r="B353" s="24"/>
       <c r="C353" s="24"/>
@@ -9091,7 +9341,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="24"/>
       <c r="B354" s="24"/>
       <c r="C354" s="24"/>
@@ -9099,7 +9349,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="24"/>
       <c r="B355" s="24"/>
       <c r="C355" s="24"/>
@@ -9107,7 +9357,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="24"/>
       <c r="B356" s="24"/>
       <c r="C356" s="24"/>
@@ -9115,7 +9365,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="24"/>
       <c r="B357" s="24"/>
       <c r="C357" s="24"/>
@@ -9123,7 +9373,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="24"/>
       <c r="B358" s="24"/>
       <c r="C358" s="24"/>
@@ -9131,7 +9381,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="24"/>
       <c r="B359" s="24"/>
       <c r="C359" s="24"/>
@@ -9139,7 +9389,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="24"/>
       <c r="B360" s="24"/>
       <c r="C360" s="24"/>
@@ -9147,7 +9397,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="24"/>
       <c r="B361" s="24"/>
       <c r="C361" s="24"/>
@@ -9155,7 +9405,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="24"/>
       <c r="B362" s="24"/>
       <c r="C362" s="24"/>
@@ -9163,7 +9413,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="24"/>
       <c r="B363" s="24"/>
       <c r="C363" s="24"/>
@@ -9171,7 +9421,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="24"/>
       <c r="B364" s="24"/>
       <c r="C364" s="24"/>
@@ -9179,7 +9429,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="24"/>
       <c r="B365" s="24"/>
       <c r="C365" s="24"/>
@@ -9187,7 +9437,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="24"/>
       <c r="B366" s="24"/>
       <c r="C366" s="24"/>
@@ -9195,7 +9445,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="24"/>
       <c r="B367" s="24"/>
       <c r="C367" s="24"/>
@@ -9203,7 +9453,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="24"/>
       <c r="B368" s="24"/>
       <c r="C368" s="24"/>
@@ -9211,7 +9461,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="24"/>
       <c r="B369" s="24"/>
       <c r="C369" s="24"/>
@@ -9219,7 +9469,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="24"/>
       <c r="B370" s="24"/>
       <c r="C370" s="24"/>
@@ -9227,7 +9477,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="24"/>
       <c r="B371" s="24"/>
       <c r="C371" s="24"/>
@@ -9235,7 +9485,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="24"/>
       <c r="B372" s="24"/>
       <c r="C372" s="24"/>
@@ -9243,7 +9493,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="24"/>
       <c r="B373" s="24"/>
       <c r="C373" s="24"/>
@@ -9251,7 +9501,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="24"/>
       <c r="B374" s="24"/>
       <c r="C374" s="24"/>
@@ -9259,7 +9509,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="24"/>
       <c r="B375" s="24"/>
       <c r="C375" s="24"/>
@@ -9267,7 +9517,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="24"/>
       <c r="B376" s="24"/>
       <c r="C376" s="24"/>
@@ -9275,7 +9525,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="24"/>
       <c r="B377" s="24"/>
       <c r="C377" s="24"/>
@@ -9283,7 +9533,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="24"/>
       <c r="B378" s="24"/>
       <c r="C378" s="24"/>
@@ -9291,7 +9541,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="24"/>
       <c r="B379" s="24"/>
       <c r="C379" s="24"/>
@@ -9299,7 +9549,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="24"/>
       <c r="B380" s="24"/>
       <c r="C380" s="24"/>
@@ -9307,7 +9557,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="24"/>
       <c r="B381" s="24"/>
       <c r="C381" s="24"/>
@@ -9315,7 +9565,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="24"/>
       <c r="B382" s="24"/>
       <c r="C382" s="24"/>
@@ -9323,7 +9573,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="24"/>
       <c r="B383" s="24"/>
       <c r="C383" s="24"/>
@@ -9331,7 +9581,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="24"/>
       <c r="B384" s="24"/>
       <c r="C384" s="24"/>
@@ -9339,7 +9589,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="24"/>
       <c r="B385" s="24"/>
       <c r="C385" s="24"/>
@@ -9348,10 +9598,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
